--- a/biology/Histoire de la zoologie et de la botanique/Gabriel_Bexon/Gabriel_Bexon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gabriel_Bexon/Gabriel_Bexon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Léopold Charles Amé Bexon, né le 10 mars 1747 à Remiremont et mort le 15 février 1784 à Paris, est un naturaliste français collaborateur de Buffon.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel Léopold Charles Amé Bexon est le troisième enfant d'Amé Bexon, procureur fiscal à Remiremont, et de Marthe Pillement[1].
-Prêtre, aumônier de la princesse Anne Charlotte de Lorraine, il est, après un long séjour à Nancy, le dernier chantre de la Sainte-Chapelle. Il coopère à l'histoire des minéraux et surtout il participe aux volumes consacrés aux oiseaux de l’Histoire naturelle de Buffon, et s'attache à imiter son style. Son frère est le criminaliste Scipion Jérôme Bexon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Léopold Charles Amé Bexon est le troisième enfant d'Amé Bexon, procureur fiscal à Remiremont, et de Marthe Pillement.
+Prêtre, aumônier de la princesse Anne Charlotte de Lorraine, il est, après un long séjour à Nancy, le dernier chantre de la Sainte-Chapelle. Il coopère à l'histoire des minéraux et surtout il participe aux volumes consacrés aux oiseaux de l’Histoire naturelle de Buffon, et s'attache à imiter son style. Son frère est le criminaliste Scipion Jérôme Bexon.
 En 1777, il s'installe à Paris et travaille principalement pour Buffon
 </t>
         </is>
@@ -544,13 +558,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Catéchisme d'agriculture (1773), ouvrage présenté sous forme dialoguée entre un père et son fils, qui parle autant de morale que d'agriculture[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catéchisme d'agriculture (1773), ouvrage présenté sous forme dialoguée entre un père et son fils, qui parle autant de morale que d'agriculture.
 Système de la fertilisation des terres (1773 et 1797), paru sous le nom de son frère Scipion Bexon, il cherche à établir l'amélioration des sols sur des vues générales  inspirées entre autres de la notion de "molécules organiques" introduite par Georges-Louis Leclerc de Buffon
 Histoire de Lorraine (inachevée, 1777), volume dédié à Marie-Antoinette. Il traite de la période allant des origines gauloises au règne du duc François II (1545). Il avait pour projet de poursuivre le travail par une histoire naturelle de la Lorraine.
-Histoire naturelle des oiseaux de Buffon. Il rédige de nombreux chapitres signés Buffon dans les tomes IV à IX[4]
-Histoire naturelle des minéraux de Buffon. Comme pour l'histoire naturelle des oiseaux de Buffon, il s'agit d'une véritable écriture collaborative[4].</t>
+Histoire naturelle des oiseaux de Buffon. Il rédige de nombreux chapitres signés Buffon dans les tomes IV à IX
+Histoire naturelle des minéraux de Buffon. Comme pour l'histoire naturelle des oiseaux de Buffon, il s'agit d'une véritable écriture collaborative.</t>
         </is>
       </c>
     </row>
